--- a/resource/40.design/440.development/[Saturn]449crawling_insert/21폴리코사놀.xlsx
+++ b/resource/40.design/440.development/[Saturn]449crawling_insert/21폴리코사놀.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecommerce\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\Eclipse\com.github.ecommerce7th.saturn\resource\40.design\440.development\[Saturn]449crawling_insert\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -659,7 +659,7 @@
   <dimension ref="B2:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D7"/>
+      <selection activeCell="P3" sqref="P3:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -725,10 +725,10 @@
     </row>
     <row r="3" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
-        <v>364</v>
+        <v>190</v>
       </c>
       <c r="C3" s="6">
-        <v>364</v>
+        <v>190</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -747,11 +747,11 @@
       </c>
       <c r="I3" s="11">
         <f ca="1">RANDBETWEEN(1, 5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="3" t="str">
         <f ca="1">"TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - " &amp; RANDBETWEEN(0, 30) &amp; ", 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')"</f>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>23</v>
@@ -770,15 +770,15 @@
       </c>
       <c r="P3" s="4" t="str">
         <f ca="1">"INSERT INTO TB_SLE VALUES (" &amp; B3 &amp; ", " &amp; C3 &amp; ", '"&amp; D3 &amp; "', '"&amp; E3 &amp; "', '"&amp; F3 &amp; "', "&amp; G3 &amp; ", '"&amp; H3 &amp; "', '" &amp; I3 &amp; "', " &amp; J3 &amp; ", " &amp; K3 &amp; ",  " &amp; L3 &amp; ", " &amp; M3 &amp; ", " &amp; N3 &amp; ", " &amp; O3 &amp; "); "</f>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (364, 364, '솔가 폴리코사놀 20mg 100캡슐 2병세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/12/16/1000000276/1000000276_main_031.jpg', 59000, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (190, 190, '솔가 폴리코사놀 20mg 100캡슐 2병세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/12/16/1000000276/1000000276_main_031.jpg', 59000, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
-        <v>365</v>
+        <v>191</v>
       </c>
       <c r="C4" s="6">
-        <v>365</v>
+        <v>191</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -801,7 +801,7 @@
       </c>
       <c r="J4" s="3" t="str">
         <f t="shared" ref="J4:J7" ca="1" si="1">"TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - " &amp; RANDBETWEEN(0, 30) &amp; ", 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')"</f>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>23</v>
@@ -820,15 +820,15 @@
       </c>
       <c r="P4" s="4" t="str">
         <f t="shared" ref="P4:P7" ca="1" si="2">"INSERT INTO TB_SLE VALUES (" &amp; B4 &amp; ", " &amp; C4 &amp; ", '"&amp; D4 &amp; "', '"&amp; E4 &amp; "', '"&amp; F4 &amp; "', "&amp; G4 &amp; ", '"&amp; H4 &amp; "', '" &amp; I4 &amp; "', " &amp; J4 &amp; ", " &amp; K4 &amp; ",  " &amp; L4 &amp; ", " &amp; M4 &amp; ", " &amp; N4 &amp; ", " &amp; O4 &amp; "); "</f>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (365, 365, '솔가 폴리코사놀 20mg 100캡슐 6병세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/12/28/1000001062/1000001062_main_033.jpg', 168000, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (191, 191, '솔가 폴리코사놀 20mg 100캡슐 6병세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/12/28/1000001062/1000001062_main_033.jpg', 168000, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
-        <v>366</v>
+        <v>192</v>
       </c>
       <c r="C5" s="6">
-        <v>366</v>
+        <v>192</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
@@ -847,11 +847,11 @@
       </c>
       <c r="I5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>23</v>
@@ -870,15 +870,15 @@
       </c>
       <c r="P5" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (366, 366, '솔가 폴리코사놀 20mg 100캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000178/1000000178_main_045.jpg', 29500, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (192, 192, '솔가 폴리코사놀 20mg 100캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000178/1000000178_main_045.jpg', 29500, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
-        <v>367</v>
+        <v>193</v>
       </c>
       <c r="C6" s="6">
-        <v>367</v>
+        <v>193</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -901,7 +901,7 @@
       </c>
       <c r="J6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>23</v>
@@ -920,15 +920,15 @@
       </c>
       <c r="P6" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (367, 367, '솔가 폴리코사놀 20mg 100캡슐 3병세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/04/1000001070/1000001070_main_01.jpg', 87500, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (193, 193, '솔가 폴리코사놀 20mg 100캡슐 3병세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/04/1000001070/1000001070_main_01.jpg', 87500, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
-        <v>368</v>
+        <v>194</v>
       </c>
       <c r="C7" s="6">
-        <v>368</v>
+        <v>194</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
@@ -947,11 +947,11 @@
       </c>
       <c r="I7" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J7" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>23</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="P7" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (368, 368, '블루보넷 폴리코사놀 20mg 60베지캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/04/15/1000001918/1000001918_main_044.jpg', 24200, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (194, 194, '블루보넷 폴리코사놀 20mg 60베지캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/04/15/1000001918/1000001918_main_044.jpg', 24200, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
